--- a/cmbautomiser/ods_templates/abs.xlsx
+++ b/cmbautomiser/ods_templates/abs.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="start" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="end" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="start" sheetId="1" r:id="rId1"/>
+    <sheet name="end" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">start!$9:$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Titles_0" vbProcedure="false">#ref!!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Titles_0_0" vbProcedure="false">#ref!!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">start!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">start!$9:$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">start!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">start!$9:$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">#ref!!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">#ref!!#ref!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">start!$1:$1</definedName>
+    <definedName name="Print_Titles_0" localSheetId="0">start!$9:$11</definedName>
+    <definedName name="Print_Titles_0_0" localSheetId="0">start!$1:$1</definedName>
+    <definedName name="Print_Titles_0_0_0" localSheetId="0">start!$9:$11</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -90,33 +85,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0\)"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="[$₹-4009]#,##0.00;[RED]\-[$₹-4009]#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0\)"/>
+    <numFmt numFmtId="165" formatCode="[$₹-4009]#,##0.00;[Red]\-[$₹-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -125,14 +103,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -147,8 +125,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,154 +142,402 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:AMK12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.69897959183674"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="11.9438775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.14285714285714"/>
+    <col min="1" max="1" width="5.7109375" style="1"/>
+    <col min="2" max="2" width="45.7109375" style="1"/>
+    <col min="3" max="3" width="8.28515625" style="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="1"/>
+    <col min="7" max="7" width="16.85546875" style="1"/>
+    <col min="8" max="1025" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="28.15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -335,7 +561,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -345,7 +571,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="13.9" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
@@ -357,7 +583,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -367,7 +593,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>8</v>
@@ -379,7 +605,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>9</v>
@@ -391,7 +617,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>10</v>
@@ -403,7 +629,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>11</v>
@@ -415,7 +641,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>12</v>
@@ -427,7 +653,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
@@ -439,7 +665,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>14</v>
@@ -451,7 +677,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>15</v>
@@ -464,40 +690,35 @@
       <c r="H12" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="5" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="99" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="87" firstPageNumber="0" fitToHeight="99" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView view="pageBreakPreview" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.86224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.14285714285714"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="45.7109375" style="1"/>
+    <col min="3" max="3" width="11.7109375" style="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="12.7109375" style="1"/>
+    <col min="6" max="6" width="9.85546875" style="1"/>
+    <col min="7" max="7" width="16.140625" style="1"/>
+    <col min="8" max="1025" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>16</v>
@@ -509,7 +730,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
         <v>17</v>
@@ -521,7 +742,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
         <v>18</v>
@@ -530,19 +751,14 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="17" t="n">
-        <f aca="true">ROUND(INDIRECT(ADDRESS(ROW()-2,7))-INDIRECT(ADDRESS(ROW()-1,7)),2)</f>
+      <c r="G3" s="17">
+        <f ca="1">ROUND(INDIRECT(ADDRESS(ROW()-2,7))-INDIRECT(ADDRESS(ROW()-1,7)),2)</f>
         <v>0</v>
       </c>
       <c r="H3" s="16"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="5" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="99" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="89" firstPageNumber="0" fitToHeight="99" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cmbautomiser/ods_templates/abs.xlsx
+++ b/cmbautomiser/ods_templates/abs.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\HP\cmbautomiser\cmbautomiser\ods_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E98D6A-F622-4789-B19A-A9E28E64F420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="start" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="end" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="start" sheetId="1" r:id="rId1"/>
+    <sheet name="end" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">start!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Titles_0" vbProcedure="false">start!$9:$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Titles_0_0" vbProcedure="false">start!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Titles_0_0_0" vbProcedure="false">start!$9:$11</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">start!$1:$1</definedName>
+    <definedName name="Print_Titles_0" localSheetId="0">start!$9:$11</definedName>
+    <definedName name="Print_Titles_0_0" localSheetId="0">start!$1:$1</definedName>
+    <definedName name="Print_Titles_0_0_0" localSheetId="0">start!$9:$11</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -29,106 +41,89 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t xml:space="preserve">Item No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABSTRACT OF COST FOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of Work:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Situation:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agreement No:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agency:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of start:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As per agreement:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of completion:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Abstract:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL AMOUNT UPTODATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD TENDER PERCENTAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NET AMOUNT UPTODATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL AMOUNT PAID IN LAST BILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL AMOUNT SINCE PREVIOUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAY</t>
+    <t>Item No.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Full Rate</t>
+  </si>
+  <si>
+    <t>Part Rate</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>ABSTRACT OF COST FOR</t>
+  </si>
+  <si>
+    <t>Name of Work:</t>
+  </si>
+  <si>
+    <t>Situation:</t>
+  </si>
+  <si>
+    <t>Agreement No:</t>
+  </si>
+  <si>
+    <t>Agency:</t>
+  </si>
+  <si>
+    <t>Date of start:</t>
+  </si>
+  <si>
+    <t>As per agreement:</t>
+  </si>
+  <si>
+    <t>Date of completion:</t>
+  </si>
+  <si>
+    <t>Date of Abstract:</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT UPTODATE</t>
+  </si>
+  <si>
+    <t>ADD TENDER PERCENTAGE</t>
+  </si>
+  <si>
+    <t>NET AMOUNT UPTODATE</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT PAID IN LAST BILL</t>
+  </si>
+  <si>
+    <t>(-)</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT SINCE PREVIOUS</t>
+  </si>
+  <si>
+    <t>SAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0\)"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="[$₹-4009]#,##0.00;[RED]\-[$₹-4009]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0\)"/>
+    <numFmt numFmtId="165" formatCode="[$₹-4009]#,##0.00;[Red]\-[$₹-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -137,14 +132,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -159,8 +154,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -176,158 +171,425 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="9.13"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -351,7 +613,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -361,7 +623,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
@@ -373,7 +635,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -383,7 +645,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>8</v>
@@ -395,7 +657,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>9</v>
@@ -407,7 +669,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>10</v>
@@ -419,7 +681,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>11</v>
@@ -431,7 +693,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>12</v>
@@ -443,7 +705,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
@@ -455,7 +717,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>14</v>
@@ -467,7 +729,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>15</v>
@@ -480,40 +742,35 @@
       <c r="H12" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="99" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="87" firstPageNumber="0" fitToHeight="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="9.13"/>
+    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>16</v>
@@ -525,7 +782,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
         <v>17</v>
@@ -537,7 +794,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
         <v>18</v>
@@ -549,7 +806,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>19</v>
@@ -563,7 +820,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -572,13 +829,13 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="17" t="n">
-        <f aca="true">ROUND(INDIRECT(ADDRESS(ROW()-2,7))-INDIRECT(ADDRESS(ROW()-1,7)),2)</f>
+      <c r="G5" s="17">
+        <f ca="1">ROUND(INDIRECT(ADDRESS(ROW()-2,7))-INDIRECT(ADDRESS(ROW()-1,7)),2)</f>
         <v>0</v>
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>22</v>
@@ -587,19 +844,14 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="17" t="n">
-        <f aca="true">ROUND(INDIRECT(ADDRESS(ROW()-1,7)),0)</f>
+      <c r="G6" s="17">
+        <f ca="1">ROUND(INDIRECT(ADDRESS(ROW()-1,7)),0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="16"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="99" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="89" firstPageNumber="0" fitToHeight="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>